--- a/excel_py/template/invoice_template.xlsx
+++ b/excel_py/template/invoice_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Project/Git/python-tools/excel_py/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14140" yWindow="6980" windowWidth="26900" windowHeight="15940"/>
+    <workbookView xWindow="4620" yWindow="1480" windowWidth="22400" windowHeight="21900"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -213,6 +213,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -227,51 +272,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -619,165 +619,317 @@
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="112">
-      <c r="A7" s="9" t="s">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="64">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="27" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="27" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="27" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="27" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="27" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="27" customHeight="1">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="27" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="27" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="27" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="27" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="27" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="27" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="27" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="27" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="27" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="27" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="27" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="27" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="27" customHeight="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="27" customHeight="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="27" customHeight="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="27" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="27" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="27" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="27" customHeight="1">
+      <c r="A33" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="17">
-        <f>SUM(B8:B13)</f>
+      <c r="B33" s="11">
+        <f>SUM(B8:B32)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="15">
-        <f>SUM(E8:E13)</f>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="9">
+        <f>SUM(E8:E32)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F14">
+  <conditionalFormatting sqref="F1:F33">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>

--- a/excel_py/template/invoice_template.xlsx
+++ b/excel_py/template/invoice_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="1480" windowWidth="22400" windowHeight="21900"/>
+    <workbookView xWindow="1980" yWindow="1980" windowWidth="22400" windowHeight="21900"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
   </si>
   <si>
     <t>Contract No.：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>购买方Buyer：EASTWEST ELECTRONIC COMMERCE CO.,LIMITED</t>
@@ -45,65 +45,35 @@
     <t>Date:</t>
   </si>
   <si>
-    <t xml:space="preserve">(1)货物名称及规格
-Commodity and Specification
-</t>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>(1)货物名称及规格
+Commodity and Specification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">(2)数量
-Quantity     
-</t>
+Quantity     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(3)单位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4)单价
-Unit Price（USD）
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)总价
-Amount(USD)
-</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4)单价
+Unit Price（USD）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5)总价
+Amount(USD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -116,20 +86,12 @@
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="&quot;US$&quot;#,##0.00;\-&quot;US$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -141,14 +103,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
@@ -156,11 +110,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,65 +187,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,314 +584,315 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="21" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" ht="33" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="39" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" ht="33" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="47" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="64">
-      <c r="A7" s="3" t="s">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="77" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" ht="27" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" ht="27" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" ht="27" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="27" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" ht="27" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" ht="27" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6" ht="27" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" ht="27" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" ht="27" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" ht="27" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" ht="27" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6" ht="27" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" ht="27" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" ht="27" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" ht="27" customHeight="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6" ht="27" customHeight="1">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6" ht="27" customHeight="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" ht="27" customHeight="1">
+      <c r="A26" s="12"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" ht="27" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6" ht="27" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" ht="27" customHeight="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6" ht="27" customHeight="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6" ht="27" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6" ht="27" customHeight="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" ht="27" customHeight="1">
+      <c r="A33" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="27" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="27" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="27" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="27" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="27" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="27" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="27" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="27" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" ht="27" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="27" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" ht="27" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="27" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="27" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" ht="27" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" ht="27" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" ht="27" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" ht="27" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" ht="27" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" ht="27" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="27" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" ht="27" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" ht="27" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" ht="27" customHeight="1">
-      <c r="A31" s="6"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" ht="27" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="27" customHeight="1">
-      <c r="A33" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="11">
+      <c r="B33" s="17">
         <f>SUM(B8:B32)</f>
         <v>0</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="9">
+      <c r="C33" s="16"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="15">
         <f>SUM(E8:E32)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="13"/>
+      <c r="F33" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -928,11 +903,12 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1:F33">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>